--- a/MazeGameLab1/Global/Maze.xlsx
+++ b/MazeGameLab1/Global/Maze.xlsx
@@ -23,9 +23,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Player position</t>
+  </si>
+  <si>
+    <t>Takes damage there</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,8 +53,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,6 +83,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,11 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,6 +438,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
+      <c r="B2" s="8"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -397,6 +454,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="7"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -435,6 +493,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -451,7 +510,38 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>